--- a/Games.xlsx
+++ b/Games.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainrochette/Desktop/Jeopardy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainrochette/MyGit/Jeop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Board 4" sheetId="7" r:id="rId1"/>
-    <sheet name="Test Board 3" sheetId="6" r:id="rId2"/>
-    <sheet name="Test Board 2" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Board" sheetId="4" r:id="rId4"/>
+    <sheet name="Cantors" sheetId="4" r:id="rId1"/>
+    <sheet name="Argentines" sheetId="5" r:id="rId2"/>
+    <sheet name="Test Board 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Test Board 4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="199">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -444,6 +444,189 @@
   </si>
   <si>
     <t>wins above replacement</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>**Axolotls &amp; mud puppies are types of this 10-letter amphibian</t>
+  </si>
+  <si>
+    <t>**China is the third largest country by area, only surpassed by these other two countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Pictures/chewie.jpg</t>
+  </si>
+  <si>
+    <t>This singer blag blah Sounds/DropTheGame.mp3</t>
+  </si>
+  <si>
+    <t>Flume</t>
+  </si>
+  <si>
+    <t>CATAN BY THE NUMBERS</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>"Grite!"</t>
+  </si>
+  <si>
+    <t>Man with Hand of God who sculpted during the Renaissance</t>
+  </si>
+  <si>
+    <t>Rolling a 10 is just as probable as rolling this other number</t>
+  </si>
+  <si>
+    <t>Pictures/allenWrench.png</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>MaraDonatello</t>
+  </si>
+  <si>
+    <t>Allen Wrench</t>
+  </si>
+  <si>
+    <t>"Potato ran."</t>
+  </si>
+  <si>
+    <t>un "Pulga" who was a civil-rights leader against Apartheid</t>
+  </si>
+  <si>
+    <t>Pictures/hacksaw.png</t>
+  </si>
+  <si>
+    <t>Patronato</t>
+  </si>
+  <si>
+    <t>LioNelson Mandela</t>
+  </si>
+  <si>
+    <t>Hacksaw</t>
+  </si>
+  <si>
+    <t>"So I run, Jacob."</t>
+  </si>
+  <si>
+    <t>In a classic game of Catan, these two resources are the only ones with 4 tiles, every other one has 3</t>
+  </si>
+  <si>
+    <t>Pictures/angleGrinder.png</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Gabriel BatisTutankhamun</t>
+  </si>
+  <si>
+    <t>Wood &amp; Sheep</t>
+  </si>
+  <si>
+    <t>(Angle) Grinder</t>
+  </si>
+  <si>
+    <t>"Penne: I denied it"</t>
+  </si>
+  <si>
+    <t>Pictures/drillBits.png</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Drill Bits</t>
+  </si>
+  <si>
+    <t>Pictures/jigSaw.png</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Jig Saw</t>
+  </si>
+  <si>
+    <t>Mat has 5 cards, Nico has 9, and Augusto has 11. Mat rolls a 7 and steals a card. How many total cards are in play?</t>
+  </si>
+  <si>
+    <t>"El Ángel" turned pharoah</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur midfielder who doubles as a Greek philosopher</t>
+  </si>
+  <si>
+    <t>Sum of the number of roads, settlements, and cities a players starts with.</t>
+  </si>
+  <si>
+    <t>Giovani Lo CelSocrates</t>
+  </si>
+  <si>
+    <t>Udinese goalkeeper who became the fascist dictator of Italy in 1925</t>
+  </si>
+  <si>
+    <t>Juan Mussolini</t>
+  </si>
+  <si>
+    <t>1 in 6</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY</t>
+  </si>
+  <si>
+    <t>Pictures/bariloche.png</t>
+  </si>
+  <si>
+    <t>Bariloche</t>
+  </si>
+  <si>
+    <t>Pictures/santaFe.png</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Pictures/nequen.png</t>
+  </si>
+  <si>
+    <t>Nequén</t>
+  </si>
+  <si>
+    <t>Pictures/bahiaBlanca.png</t>
+  </si>
+  <si>
+    <t>Bahía Blanca</t>
+  </si>
+  <si>
+    <t>Pictures/puertoMadryn.png</t>
+  </si>
+  <si>
+    <t>Puerto Madryn</t>
+  </si>
+  <si>
+    <t>ANAGRAMMED ARG SOCCER CLUBS</t>
+  </si>
+  <si>
+    <t>ARG SOCCER PLAYERS BEFORE AND AFTER</t>
+  </si>
+  <si>
+    <t>"Juicy stained safe"</t>
+  </si>
+  <si>
+    <t>**What is the probability a 7 is rolled?</t>
   </si>
 </sst>
 </file>
@@ -595,8 +778,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -657,9 +842,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,7 +876,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -708,8 +895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12973050" y="3924554"/>
-          <a:ext cx="4905375" cy="1282446"/>
+          <a:off x="12954000" y="3937254"/>
+          <a:ext cx="4905375" cy="1288796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,7 +920,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -752,8 +939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13202425" y="18875374"/>
-          <a:ext cx="4665509" cy="2220100"/>
+          <a:off x="13183375" y="18954749"/>
+          <a:ext cx="4665509" cy="2223275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,7 +964,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -796,8 +983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13036550" y="12676055"/>
-          <a:ext cx="5000625" cy="2370269"/>
+          <a:off x="13017500" y="12723680"/>
+          <a:ext cx="5000625" cy="2382969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,7 +1287,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1119,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12954000" y="3937254"/>
-          <a:ext cx="4905375" cy="1288796"/>
+          <a:off x="12973050" y="3924554"/>
+          <a:ext cx="4905375" cy="1282446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,7 +1331,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1163,8 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13183375" y="18954749"/>
-          <a:ext cx="4665509" cy="2223275"/>
+          <a:off x="13202425" y="18875374"/>
+          <a:ext cx="4665509" cy="2220100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,7 +1375,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1207,8 +1394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13017500" y="12723680"/>
-          <a:ext cx="5000625" cy="2382969"/>
+          <a:off x="13036550" y="12676055"/>
+          <a:ext cx="5000625" cy="2370269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>128</v>
@@ -1786,7 +1973,7 @@
         <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>134</v>
@@ -1817,7 +2004,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>135</v>
@@ -2058,7 +2245,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>37</v>
@@ -2114,7 +2301,7 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>109</v>
@@ -2145,7 +2332,7 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>110</v>
@@ -2422,7 +2609,9 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="F35" s="19"/>
       <c r="G35" s="17"/>
       <c r="H35" s="9"/>
@@ -2571,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2624,22 +2813,22 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -2674,22 +2863,22 @@
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="9"/>
@@ -2705,22 +2894,22 @@
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
+      <c r="E6" s="5">
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="9"/>
@@ -2736,22 +2925,22 @@
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
@@ -2767,22 +2956,22 @@
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
+      <c r="E8" s="5">
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
@@ -2798,22 +2987,22 @@
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
@@ -2829,22 +3018,22 @@
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
@@ -2860,22 +3049,22 @@
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -2891,22 +3080,22 @@
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
+      <c r="E12" s="5">
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -2922,22 +3111,22 @@
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -2953,22 +3142,22 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -2983,9 +3172,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -3144,7 +3331,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>37</v>
@@ -3200,7 +3387,7 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>109</v>
@@ -3657,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3710,7 +3897,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -4743,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4796,7 +4983,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cantors" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -473,75 +473,30 @@
     <t>Flume</t>
   </si>
   <si>
-    <t>CATAN BY THE NUMBERS</t>
-  </si>
-  <si>
     <t>TOOLS</t>
   </si>
   <si>
-    <t>"Grite!"</t>
-  </si>
-  <si>
-    <t>Man with Hand of God who sculpted during the Renaissance</t>
-  </si>
-  <si>
     <t>Rolling a 10 is just as probable as rolling this other number</t>
   </si>
   <si>
-    <t>Pictures/allenWrench.png</t>
-  </si>
-  <si>
     <t>Tigre</t>
   </si>
   <si>
     <t>MaraDonatello</t>
   </si>
   <si>
-    <t>Allen Wrench</t>
-  </si>
-  <si>
-    <t>"Potato ran."</t>
-  </si>
-  <si>
-    <t>un "Pulga" who was a civil-rights leader against Apartheid</t>
-  </si>
-  <si>
-    <t>Pictures/hacksaw.png</t>
-  </si>
-  <si>
     <t>Patronato</t>
   </si>
   <si>
     <t>LioNelson Mandela</t>
   </si>
   <si>
-    <t>Hacksaw</t>
-  </si>
-  <si>
-    <t>"So I run, Jacob."</t>
-  </si>
-  <si>
-    <t>In a classic game of Catan, these two resources are the only ones with 4 tiles, every other one has 3</t>
-  </si>
-  <si>
-    <t>Pictures/angleGrinder.png</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
     <t>Gabriel BatisTutankhamun</t>
   </si>
   <si>
-    <t>Wood &amp; Sheep</t>
-  </si>
-  <si>
-    <t>(Angle) Grinder</t>
-  </si>
-  <si>
-    <t>"Penne: I denied it"</t>
-  </si>
-  <si>
     <t>Pictures/drillBits.png</t>
   </si>
   <si>
@@ -551,33 +506,18 @@
     <t>Drill Bits</t>
   </si>
   <si>
-    <t>Pictures/jigSaw.png</t>
+    <t>What is the probability a 7 is rolled?</t>
   </si>
   <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Jig Saw</t>
-  </si>
-  <si>
     <t>Mat has 5 cards, Nico has 9, and Augusto has 11. Mat rolls a 7 and steals a card. How many total cards are in play?</t>
   </si>
   <si>
-    <t>"El Ángel" turned pharoah</t>
-  </si>
-  <si>
     <t>Tottenham Hotspur midfielder who doubles as a Greek philosopher</t>
   </si>
   <si>
-    <t>Sum of the number of roads, settlements, and cities a players starts with.</t>
-  </si>
-  <si>
-    <t>Giovani Lo CelSocrates</t>
-  </si>
-  <si>
-    <t>Udinese goalkeeper who became the fascist dictator of Italy in 1925</t>
-  </si>
-  <si>
     <t>Juan Mussolini</t>
   </si>
   <si>
@@ -593,24 +533,12 @@
     <t>Bariloche</t>
   </si>
   <si>
-    <t>Pictures/santaFe.png</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
     <t>Pictures/nequen.png</t>
   </si>
   <si>
     <t>Nequén</t>
   </si>
   <si>
-    <t>Pictures/bahiaBlanca.png</t>
-  </si>
-  <si>
-    <t>Bahía Blanca</t>
-  </si>
-  <si>
     <t>Pictures/puertoMadryn.png</t>
   </si>
   <si>
@@ -620,21 +548,349 @@
     <t>ANAGRAMMED ARG SOCCER CLUBS</t>
   </si>
   <si>
-    <t>ARG SOCCER PLAYERS BEFORE AND AFTER</t>
-  </si>
-  <si>
-    <t>"Juicy stained safe"</t>
-  </si>
-  <si>
-    <t>**What is the probability a 7 is rolled?</t>
+    <t>Sum of the number of roads, settlements, and cities available to each player</t>
+  </si>
+  <si>
+    <t>Ore &amp; Brick</t>
+  </si>
+  <si>
+    <t>In a classic game of Catan, these two resources are the only ones with 3 tiles, every other one has 4</t>
+  </si>
+  <si>
+    <t>RIVER</t>
+  </si>
+  <si>
+    <t>PLATE</t>
+  </si>
+  <si>
+    <t>JUNIORS</t>
+  </si>
+  <si>
+    <t>ARG PLAYERS BEFORE AND AFTER</t>
+  </si>
+  <si>
+    <t>Grite!</t>
+  </si>
+  <si>
+    <t>Potato ran.</t>
+  </si>
+  <si>
+    <t>So I run, Jacob.</t>
+  </si>
+  <si>
+    <t>Penne: I denied it</t>
+  </si>
+  <si>
+    <t>Juicy stained safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The estuary formed by the confluence of the Uruguay and the Paraná rivers. </t>
+  </si>
+  <si>
+    <t>You'll find her kicking some ass in Super Smash Bros, as well as tending to her garden in Animal Crossing</t>
+  </si>
+  <si>
+    <t>This actor plays an Australian actor who plays a black character in Tropic Thunder</t>
+  </si>
+  <si>
+    <t>Rio de La Plata</t>
+  </si>
+  <si>
+    <t>Milanesa</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>Top off your plate with this sauce which typically incorporates parsley, garlic, olive oil, oregano, vinegar, and chili pepper</t>
+  </si>
+  <si>
+    <t>Here's a call-back: After two evolutions, this pokemon becomes Victreebel</t>
+  </si>
+  <si>
+    <t>Zaire Wade and Bronny played together at this high school</t>
+  </si>
+  <si>
+    <t>Chimichurri</t>
+  </si>
+  <si>
+    <t>Bellsprout</t>
+  </si>
+  <si>
+    <t>Sierra Canyon</t>
+  </si>
+  <si>
+    <t>There is an ongoing debate as to whether the Nile, or this other river, is the longest in the world</t>
+  </si>
+  <si>
+    <t>What Fat Bastard says when he first meets Mini-Me</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Dulce de Leche</t>
+  </si>
+  <si>
+    <t>Get in my belly!</t>
+  </si>
+  <si>
+    <t>Locro</t>
+  </si>
+  <si>
+    <t>This pizza is loaded with onions, grated cheese, and filled with fresh Mozzarella.</t>
+  </si>
+  <si>
+    <t>Fugazzetta</t>
+  </si>
+  <si>
+    <t>Example: Contemporary GOAT who became a renowned, and controversial, psychologist: MesSigmund Freud</t>
+  </si>
+  <si>
+    <t>Cachai</t>
+  </si>
+  <si>
+    <t>On the Argentine side of the island of Tierra del Fuego, this city lays claim to be the southernmost inhabited city in the world.</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Cuico</t>
+  </si>
+  <si>
+    <t>**"El Ángel" turned pharoah</t>
+  </si>
+  <si>
+    <t>1930 and this year, are the only ones to not see a European team in the FIFA World Cup final.</t>
+  </si>
+  <si>
+    <t>Sacowea</t>
+  </si>
+  <si>
+    <t>This region has the highest mountain massifs in the Andes, and the name is given to the wine-producing, mountainous area of central-west Argentina.</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Pico pal que lee</t>
+  </si>
+  <si>
+    <t>TV show character names beginning with BO or CA</t>
+  </si>
+  <si>
+    <t>Bojack Horseman</t>
+  </si>
+  <si>
+    <t>Draining from the Everglades, the Miami River meanders through Miami-Dade and empties out into this bay</t>
+  </si>
+  <si>
+    <t>Wife of Lord Eddard Stark of Winterfell, the Warden of the North and mother to five of his children Robb, Sansa, Arya, Bran and Rickon</t>
+  </si>
+  <si>
+    <t>Biscayne Bay</t>
+  </si>
+  <si>
+    <t>Catelyn Stark</t>
+  </si>
+  <si>
+    <t>Carlton Banks</t>
+  </si>
+  <si>
+    <t>Guillermo Coria</t>
+  </si>
+  <si>
+    <t>Get a nice view of the Miami River from this restaurant atop the EPIC hotel</t>
+  </si>
+  <si>
+    <t>**This hearty stew is considered a national dish and is very prominent during patriotic holidays such as May 25th</t>
+  </si>
+  <si>
+    <t>Pictures/abellaDanger.png</t>
+  </si>
+  <si>
+    <t>Mr. Incredible's real name</t>
+  </si>
+  <si>
+    <t>This junior vastly outperformed his father, Joe "Jellybean", in the NBA</t>
+  </si>
+  <si>
+    <t>Area 31</t>
+  </si>
+  <si>
+    <t>Abella Danger</t>
+  </si>
+  <si>
+    <t>Bob Parr</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Name of the type of plant used to generate electricity from the water flow in rivers</t>
+  </si>
+  <si>
+    <t>Kristen Stewart's character in Twilight</t>
+  </si>
+  <si>
+    <t>Old dude from "Up"</t>
+  </si>
+  <si>
+    <t>While Diddy Kong is not actually Donkey Kong's son, this character is, in fact, the offspring of another Super Smash Bros Ultimate character</t>
+  </si>
+  <si>
+    <t>Hydroelectric</t>
+  </si>
+  <si>
+    <t>Isabella "Bella" Swan</t>
+  </si>
+  <si>
+    <t>Bowser Jr.</t>
+  </si>
+  <si>
+    <t>"BO" O "CA"</t>
+  </si>
+  <si>
+    <t>"BELL"</t>
+  </si>
+  <si>
+    <t>This country hosted the first ever World Cup in 1930 and also went on to win the tournament.</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>This retired German striker is the World Cup’s highest total goal scorer, having scored 16 goals in total.</t>
+  </si>
+  <si>
+    <t>Miroslav Klose</t>
+  </si>
+  <si>
+    <t>This country holds the record for most World Cup losses with 25. They do have 14 wins and 14 draws, so it’s not all bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovani Lo CelSocrates
+</t>
+  </si>
+  <si>
+    <t>Apagar tele</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udinese goalkeeper who became the fascist dictator of Italy in 1925
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Described by David Coleman as one of the "most shameful" things television viewers would ever see, Chile's World Cup battle with Italy in 1962 on home soil became known as this phrase. </t>
+  </si>
+  <si>
+    <t>Battle of Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A humanoid horse-- lost in a sea of self-loathing and booze -- who decides it's time for a comeback
+</t>
+  </si>
+  <si>
+    <t>Top off your dessert with this topping made by reducing condensed milk very slowly</t>
+  </si>
+  <si>
+    <t>This junior tennis player won the Orange Bowl 16's, and reached the finals of the Orange Bowl 18s in 1998, where he was defeated by future world No. 1 Roger Federer.</t>
+  </si>
+  <si>
+    <t>GRANO, ROCA, OBEJA</t>
+  </si>
+  <si>
+    <t>Pied Piper was momentarily one of these: any privately held startup company valued at over $1 billion. Sounds magical!</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Spaces</t>
+  </si>
+  <si>
+    <t>Decentralized</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY</t>
+  </si>
+  <si>
+    <t>CHILEAN SLANG</t>
+  </si>
+  <si>
+    <t>FIFA WORLD CUP</t>
+  </si>
+  <si>
+    <t>Nico fucks dick</t>
+  </si>
+  <si>
+    <t>C: This word is usually used at the end of a sentence or question to check that someone understood what you were saying.</t>
+  </si>
+  <si>
+    <t>C: This word refers to a person from the upper class, who is generally rich and quite often spoilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S: Refering to the Male reproductive system, a person who commits a stupidity is called in this vulgar way to be insulted or to be made fun of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT: To lose consciousness, usually due to the effect of high levels of ethanol. </t>
+  </si>
+  <si>
+    <t>PPQL: This phrase is commonly used as graffiti written in bathrooms, transports, and streets to fool anyone who reads it.</t>
+  </si>
+  <si>
+    <t>Pied Piper's "New Internet" is of this type, its aims include the redistribution of online power to users, collectivized ownership, resistance to censorship.</t>
+  </si>
+  <si>
+    <t>Richard Hendricks: "There is no way I'm gonna be with someone who uses" these "over tabs."</t>
+  </si>
+  <si>
+    <t>Silicon Valley's Hacker House is this, a place that helps new and startup companies to develop by providing services such as management training or office space.</t>
+  </si>
+  <si>
+    <t>Incubator (or accelarator)</t>
+  </si>
+  <si>
+    <t>**Uncle Phil's Son</t>
+  </si>
+  <si>
+    <t>Carl (Friedricksen)</t>
+  </si>
+  <si>
+    <t>d = { 0 : "Nico sucks dick",                              1 : "Nico fucks dick",                               2 : "Nico licks dick" }                              
+x = 16 % 3                                    
+print(d[x])</t>
+  </si>
+  <si>
+    <t>Man with the Hand of God who sculpted during the Renaissance (Cowabunga!)</t>
+  </si>
+  <si>
+    <t>Take some meat, soak it in egg batter, fry it up, and add some fries if you want</t>
+  </si>
+  <si>
+    <t>La "Pulga" who was a civil-rights leader against Apartheid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -667,6 +923,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -778,25 +1041,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,16 +1073,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,12 +1108,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2758,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2769,7 +3049,7 @@
     <col min="1" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +3070,7 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2811,24 +3091,24 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -2842,10 +3122,12 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2861,24 +3143,24 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="9"/>
@@ -2892,24 +3174,24 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="9"/>
@@ -2923,24 +3205,24 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
@@ -2953,25 +3235,26 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="5">
-        <v>16</v>
+        <v>209</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
@@ -2985,24 +3268,24 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
@@ -3016,24 +3299,24 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>167</v>
+        <v>212</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1950</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
@@ -3047,24 +3330,24 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -3078,24 +3361,24 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="5">
-        <v>24</v>
+        <v>248</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -3109,24 +3392,24 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -3140,24 +3423,24 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -3171,8 +3454,10 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -3190,7 +3475,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
@@ -3213,22 +3498,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -3242,13 +3527,15 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -3263,22 +3550,22 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
@@ -3294,22 +3581,22 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
@@ -3325,22 +3612,22 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
@@ -3356,22 +3643,22 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>195</v>
+      </c>
+      <c r="D22" s="5">
+        <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -3387,22 +3674,22 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -3418,22 +3705,22 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
@@ -3449,22 +3736,22 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
@@ -3480,22 +3767,22 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>42</v>
+        <v>230</v>
+      </c>
+      <c r="D26" s="5">
+        <v>24</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
@@ -3511,22 +3798,22 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
@@ -3541,23 +3828,23 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>1949</v>
+      <c r="A28" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3572,14 +3859,14 @@
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3593,14 +3880,14 @@
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="11"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -3615,7 +3902,7 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
@@ -3650,7 +3937,7 @@
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -3671,7 +3958,7 @@
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cantors" sheetId="4" r:id="rId1"/>
     <sheet name="Argentines" sheetId="5" r:id="rId2"/>
-    <sheet name="Test Board 3" sheetId="6" r:id="rId3"/>
-    <sheet name="Test Board 4" sheetId="7" r:id="rId4"/>
+    <sheet name="Limonti" sheetId="8" r:id="rId3"/>
+    <sheet name="Test Board 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Test Board 4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="346">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -875,6 +876,204 @@
   </si>
   <si>
     <t>La "Pulga" who was a civil-rights leader against Apartheid</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>This man was the first black President of South Africa and served from 1994 to 1999.</t>
+  </si>
+  <si>
+    <t>A German politician and leader of the Nazi Party. He rose to power as the chancellor of Germany in 1933 and then as Führer in 1934.</t>
+  </si>
+  <si>
+    <t>Rafa works as a Project Manager and Sales Strategist for this Company</t>
+  </si>
+  <si>
+    <t>Pictures/amandaC</t>
+  </si>
+  <si>
+    <t>These two people created Seinfeld - one of the greatest and most influential sitcoms of all time</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>Nelson Mandela</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Amanda Cerny</t>
+  </si>
+  <si>
+    <t>Larry David &amp; Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This American abolotionist and political activisit made 13 missions to rescue approximately 70 enslaved people, using the network of antislavery activists and safe houses known as the Underground Railroad. </t>
+  </si>
+  <si>
+    <t>She was married to Nirvana frontman Kurt Cobain. Even though it was ruled a suicide, many people she was responsible for the death of her late husband. -NOT PROVEN-</t>
+  </si>
+  <si>
+    <t>Rafa recently sold his beige JEEP to buy this vehicle</t>
+  </si>
+  <si>
+    <t>Pictures/sashaG</t>
+  </si>
+  <si>
+    <t>Ross Geller from Friends was married and divorced to these three women</t>
+  </si>
+  <si>
+    <t>Match Group Inc</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>2011 BMW M3 E92 Competition Package</t>
+  </si>
+  <si>
+    <t>Sasha Grey</t>
+  </si>
+  <si>
+    <t>Carol Willik, Emily Waltham &amp; Rachel Green</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>This African American was the first to play in Major League Baseball (MLB) in the modern era.</t>
+  </si>
+  <si>
+    <t>**What is the name of the officer that killed George Floyd?</t>
+  </si>
+  <si>
+    <t>Rafa has two younger brothers. What are there names?</t>
+  </si>
+  <si>
+    <t>Pictures/miaK</t>
+  </si>
+  <si>
+    <t>This solo/group artist was the first to win a Grammy award for Best Rap Performance</t>
+  </si>
+  <si>
+    <t>Slack Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Jackie Robinson</t>
+  </si>
+  <si>
+    <t>Derek Chauvin</t>
+  </si>
+  <si>
+    <t>Joaquin &amp; Benjamin</t>
+  </si>
+  <si>
+    <t>Mia Khalifa</t>
+  </si>
+  <si>
+    <t>DJ Jazzy Jeff &amp; The Fresh Prince (Will Smith)</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>Pictures/TrayvonM</t>
+  </si>
+  <si>
+    <t>The pilot of the B-29 bomber Enola Gay that dropped the atomic bomb on Hiroshima, killing approximately 90,000–166,000 people</t>
+  </si>
+  <si>
+    <t>The name of Rafa's sister first hit single</t>
+  </si>
+  <si>
+    <t>Pictures/stormyD</t>
+  </si>
+  <si>
+    <t>O.J. Simpson was in this car during his infamous 1994 car chase</t>
+  </si>
+  <si>
+    <t>Penn National Gaming Inc.</t>
+  </si>
+  <si>
+    <t>Trayvon Martin</t>
+  </si>
+  <si>
+    <t>Paul Tibbets</t>
+  </si>
+  <si>
+    <t>Quien Te Entiende</t>
+  </si>
+  <si>
+    <t>Stormy Daniels</t>
+  </si>
+  <si>
+    <t>White 1993 Ford Bronco SUV</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>This fictional Afro-Latino superhero appeared in publications by Marvel Comics as Spider-Man</t>
+  </si>
+  <si>
+    <t>An American former music executive and co-founder/CEO of Death Row Records. Many believe he was responsible for the murders of Tupac Shakur and Eazy E. -NOT PROVEN-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before officially retiring from tennis I played Rafa a one-set match. What was the outcome of this bout? </t>
+  </si>
+  <si>
+    <t>Pictures/alexisT</t>
+  </si>
+  <si>
+    <t>The main protagonist of Dragon Ball Z, Goku, has a son who grows up to eventually surpass him in power in order to defeat Cell and restore peace to the world</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc.</t>
+  </si>
+  <si>
+    <t>Miles Morales</t>
+  </si>
+  <si>
+    <t>Suge Knight</t>
+  </si>
+  <si>
+    <t>6 - 1 W Augusto</t>
+  </si>
+  <si>
+    <t>Alexis Texas</t>
+  </si>
+  <si>
+    <t>Gohan</t>
+  </si>
+  <si>
+    <t>That Shit STONKS Don't it?</t>
+  </si>
+  <si>
+    <t>Do Black Lives Matter to YOU?</t>
+  </si>
+  <si>
+    <t>Do All Lives REALLY Matter</t>
+  </si>
+  <si>
+    <t>No Show Ho Got Da FOMO</t>
+  </si>
+  <si>
+    <t>THINK LIKE A MAN</t>
+  </si>
+  <si>
+    <t>OoO MEMBA THE 90s Ooo YEAH I MEMBA</t>
   </si>
 </sst>
 </file>
@@ -1449,6 +1648,143 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="12973050" y="4330954"/>
+          <a:ext cx="4905375" cy="1282446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>523874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291134</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13202425" y="19332574"/>
+          <a:ext cx="4665509" cy="2220100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>674555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13036550" y="13133255"/>
+          <a:ext cx="5000625" cy="2370269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>889254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="12973050" y="3924554"/>
           <a:ext cx="4905375" cy="1282446"/>
         </a:xfrm>
@@ -1550,7 +1886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3040,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4129,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,7 +4476,7 @@
     <col min="1" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -4161,7 +4497,7 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4182,24 +4518,24 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>343</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -4213,10 +4549,10 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -4232,24 +4568,24 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="9"/>
@@ -4263,24 +4599,24 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="9"/>
@@ -4294,24 +4630,24 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
@@ -4324,25 +4660,26 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
@@ -4356,24 +4693,24 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
@@ -4387,24 +4724,24 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
@@ -4418,24 +4755,24 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -4449,24 +4786,24 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -4480,24 +4817,24 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -4511,24 +4848,24 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>137</v>
+        <v>339</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -4542,7 +4879,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4900,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
@@ -4586,22 +4923,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -4615,13 +4952,15 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -4636,22 +4975,22 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
@@ -4667,22 +5006,22 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
@@ -4698,22 +5037,22 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
@@ -4729,22 +5068,22 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>195</v>
+      </c>
+      <c r="D22" s="5">
+        <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -4760,22 +5099,22 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -4791,22 +5130,22 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
@@ -4822,22 +5161,22 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
@@ -4853,22 +5192,22 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>42</v>
+        <v>230</v>
+      </c>
+      <c r="D26" s="5">
+        <v>24</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
@@ -4884,22 +5223,22 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
@@ -4914,23 +5253,23 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>1949</v>
+      <c r="A28" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -4945,14 +5284,14 @@
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -4966,14 +5305,14 @@
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="11"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -4988,7 +5327,7 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
@@ -5023,7 +5362,7 @@
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -5044,7 +5383,7 @@
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -5270,7 +5609,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -6297,4 +6636,1090 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1949</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P46" s="7"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Games.xlsx
+++ b/Games.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="403">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -920,9 +920,6 @@
     <t xml:space="preserve">This American abolotionist and political activisit made 13 missions to rescue approximately 70 enslaved people, using the network of antislavery activists and safe houses known as the Underground Railroad. </t>
   </si>
   <si>
-    <t>She was married to Nirvana frontman Kurt Cobain. Even though it was ruled a suicide, many people she was responsible for the death of her late husband. -NOT PROVEN-</t>
-  </si>
-  <si>
     <t>Rafa recently sold his beige JEEP to buy this vehicle</t>
   </si>
   <si>
@@ -1061,26 +1058,200 @@
     <t>That Shit STONKS Don't it?</t>
   </si>
   <si>
-    <t>Do Black Lives Matter to YOU?</t>
-  </si>
-  <si>
     <t>Do All Lives REALLY Matter</t>
   </si>
   <si>
     <t>No Show Ho Got Da FOMO</t>
   </si>
   <si>
-    <t>THINK LIKE A MAN</t>
-  </si>
-  <si>
-    <t>OoO MEMBA THE 90s Ooo YEAH I MEMBA</t>
+    <t>Who's That *POKEMON*??</t>
+  </si>
+  <si>
+    <t>So, What Do You Do?</t>
+  </si>
+  <si>
+    <t>THINK LIKE A MAN 2</t>
+  </si>
+  <si>
+    <t>Co-captained the USWNT to a 4th WC title in 2019. She also won  the Ballon d'Or Féminin and was named The Best FIFA Women's Player in 2019.</t>
+  </si>
+  <si>
+    <t>This young man looks to follow in the footsteps of his father and make his own name as a Sports Journalists.</t>
+  </si>
+  <si>
+    <t>Jose Solis full name</t>
+  </si>
+  <si>
+    <t>Megan Rapinoe</t>
+  </si>
+  <si>
+    <t>Nico Cantor</t>
+  </si>
+  <si>
+    <t>Jose Fernando Solis Camara Martinez</t>
+  </si>
+  <si>
+    <t>The first female aviator to fly solo across the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Maria Gabriela Torres often complains about her work at Deloitte. What is her current Job title at this company?</t>
+  </si>
+  <si>
+    <t>From 2010 to 2013, he was ranked as the richest person in the world by the Forbes business magazine.</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Tax Consultant</t>
+  </si>
+  <si>
+    <t>Carlos Slim</t>
+  </si>
+  <si>
+    <t>A Mexican painter known for her many portraits, self-portraits, and works inspired by the nature and artifacts of Mexico.</t>
+  </si>
+  <si>
+    <t>Mariana Valenzuela has moved up the ranks as MDF Coordinator to Account Manager at this company</t>
+  </si>
+  <si>
+    <t>A Mexican racing driver, currently driving in Formula One for Racing Point</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>VMLY&amp;R</t>
+  </si>
+  <si>
+    <t>Sergio "Checo" Perez</t>
+  </si>
+  <si>
+    <t>**An American social reformer and women's rights activist who played a pivotal role in the women's suffrage movement. In 1851, she met Elizabeth Cady Stanton, who became her lifelong friend and co-worker in social reform activities, primarily in the field of women's rights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before making his big move to New York City to become an Investment Banking Analyst at JP Morgan, Marcelo Guerra, worked as what type of analyst and for what bank? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A video that was uploaded to YouTube before May 8, 2006 from Mexico features this young man falling into the water after attempting to cross a bridge composed of two logs.</t>
+  </si>
+  <si>
+    <t>Susan B. Anthony</t>
+  </si>
+  <si>
+    <t>Middle Market Banking Analyst at JP Morgan (Commercial Banking Analyst)</t>
+  </si>
+  <si>
+    <t>Edgár</t>
+  </si>
+  <si>
+    <t>She was the first African-American child to desegregate the all-white William Frantz Elementary School in Louisiana during the New Orleans school desegregation crisis on 14 November 1960</t>
+  </si>
+  <si>
+    <t>Jose Reyes is an up-and-coming Senior Sales Engineer for this Company</t>
+  </si>
+  <si>
+    <t>An animated caricature of a mouse in the Warner Brothers Looney Tunes and Merrie Melodies series of cartoons. He is portrayed as "The Fastest Mouse in all Mexico" with his major traits being the ability to run extremely fast and speaking with an exaggerated Mexican accent.</t>
+  </si>
+  <si>
+    <t>Ruby Bridges</t>
+  </si>
+  <si>
+    <t>TransUnion</t>
+  </si>
+  <si>
+    <t>Speedy Gonzalez</t>
+  </si>
+  <si>
+    <t>Pictures/charmanderQ</t>
+  </si>
+  <si>
+    <t>Pictures/charmanderA</t>
+  </si>
+  <si>
+    <t>Pictures/blastoiseQ</t>
+  </si>
+  <si>
+    <t>Pictures/gengarQ</t>
+  </si>
+  <si>
+    <t>Pictures/mewtwoQ</t>
+  </si>
+  <si>
+    <t>Pictures/lucarioQ</t>
+  </si>
+  <si>
+    <t>Do Black Lives Matter to YOU??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THINK LIKE A MAN </t>
+  </si>
+  <si>
+    <t>Ooo MEMBA THE 90s Ooo YEAH I MEMBA</t>
+  </si>
+  <si>
+    <t>no hints for this one, only girls can answer but too easy</t>
+  </si>
+  <si>
+    <t>A friend that you can bring to a bar or party in order to find women more easily.</t>
+  </si>
+  <si>
+    <t>Wingman</t>
+  </si>
+  <si>
+    <t>She was married to Nirvana frontman Kurt Cobain. Even though it was ruled a suicide, many people believe she was responsible for the death of her late husband. -NOT PROVEN-</t>
+  </si>
+  <si>
+    <t>Article 1 of The Bro Code</t>
+  </si>
+  <si>
+    <t>Bros Before Hoes</t>
+  </si>
+  <si>
+    <t>Known medically as epididymal hypertension (EH), is a condition that can affect people with male genitals. It's not serious, but causes pain and aching in the testicles after having an erection without an orgasm.</t>
+  </si>
+  <si>
+    <t>Blue Balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The simple act of consuming a beer at a high rate of speed by cutting a hole into the bottom side of a beer can and placing your mouth over said hole. </t>
+  </si>
+  <si>
+    <t>Shotgunning</t>
+  </si>
+  <si>
+    <t>A type of game, often played using the Internet, where participants assemble imaginary or virtual teams of real players of a professional sport.</t>
+  </si>
+  <si>
+    <t>Fantasy Sports</t>
+  </si>
+  <si>
+    <t>Pictures/lucarioA</t>
+  </si>
+  <si>
+    <t>Pictures/mewtwoA</t>
+  </si>
+  <si>
+    <t>Pictures/gengarA</t>
+  </si>
+  <si>
+    <t>Pictures/blastoiseA</t>
+  </si>
+  <si>
+    <t>Historic Women</t>
+  </si>
+  <si>
+    <t>Quarantine victims</t>
+  </si>
+  <si>
+    <t>Oo Memba When There Weren't So Many Mexicans? Oo yeah I Memba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1128,6 +1299,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1240,7 +1418,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1250,8 +1428,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1316,16 +1496,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4467,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4520,22 +4705,22 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -4549,12 +4734,14 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="21"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="24" t="s">
+        <v>384</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
       <c r="H4" s="9"/>
@@ -4582,7 +4769,7 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
@@ -4613,7 +4800,7 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
@@ -4638,16 +4825,16 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
@@ -4664,22 +4851,22 @@
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
@@ -4695,22 +4882,22 @@
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
@@ -4726,22 +4913,22 @@
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="E10" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
@@ -4757,22 +4944,22 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="E11" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -4788,22 +4975,22 @@
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="E12" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -4819,22 +5006,22 @@
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -4850,22 +5037,22 @@
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="E14" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -4923,22 +5110,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>400</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -4952,14 +5139,12 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="5"/>
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
@@ -4975,22 +5160,20 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
@@ -5006,22 +5189,20 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
@@ -5037,22 +5218,20 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>160</v>
+        <v>352</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
@@ -5068,22 +5247,20 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="5">
-        <v>16</v>
+        <v>354</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -5099,22 +5276,20 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>197</v>
+        <v>378</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -5130,22 +5305,20 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
@@ -5161,22 +5334,20 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>226</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>236</v>
+        <v>365</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
@@ -5192,22 +5363,20 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>229</v>
+        <v>397</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="5">
-        <v>24</v>
+        <v>366</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
@@ -5223,22 +5392,20 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
@@ -5254,22 +5421,20 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>238</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>223</v>
+        <v>374</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -1163,24 +1163,6 @@
     <t>Speedy Gonzalez</t>
   </si>
   <si>
-    <t>Pictures/charmanderQ</t>
-  </si>
-  <si>
-    <t>Pictures/charmanderA</t>
-  </si>
-  <si>
-    <t>Pictures/blastoiseQ</t>
-  </si>
-  <si>
-    <t>Pictures/gengarQ</t>
-  </si>
-  <si>
-    <t>Pictures/mewtwoQ</t>
-  </si>
-  <si>
-    <t>Pictures/lucarioQ</t>
-  </si>
-  <si>
     <t>Do Black Lives Matter to YOU??</t>
   </si>
   <si>
@@ -1232,9 +1214,6 @@
     <t>Pictures/mewtwoA</t>
   </si>
   <si>
-    <t>Pictures/gengarA</t>
-  </si>
-  <si>
     <t>Pictures/blastoiseA</t>
   </si>
   <si>
@@ -1245,6 +1224,27 @@
   </si>
   <si>
     <t>Oo Memba When There Weren't So Many Mexicans? Oo yeah I Memba</t>
+  </si>
+  <si>
+    <t>Pictures/charmanderQSounds/whosThat.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/charmanderASounds/DropTheGame.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/mewtwoQSounds/whosThat.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/lucarioQSounds/whosThat.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/blastoiseQSounds/whosThat.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/magmarQSounds/whosThat.mp3</t>
+  </si>
+  <si>
+    <t>Pictures/magmarA</t>
   </si>
 </sst>
 </file>
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4708,7 +4708,7 @@
         <v>339</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>340</v>
@@ -4717,10 +4717,10 @@
         <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -4740,7 +4740,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="24" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
@@ -4769,7 +4769,7 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
@@ -4800,7 +4800,7 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
@@ -4825,13 +4825,13 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>296</v>
@@ -4863,7 +4863,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>302</v>
@@ -4894,7 +4894,7 @@
         <v>306</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>308</v>
@@ -4925,7 +4925,7 @@
         <v>312</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>314</v>
@@ -4956,7 +4956,7 @@
         <v>318</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>320</v>
@@ -4987,7 +4987,7 @@
         <v>324</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>326</v>
@@ -5018,7 +5018,7 @@
         <v>330</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>332</v>
@@ -5049,7 +5049,7 @@
         <v>336</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>338</v>
@@ -5113,10 +5113,10 @@
         <v>342</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>343</v>
@@ -5125,7 +5125,7 @@
         <v>344</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>345</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>348</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>351</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>354</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>357</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>360</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>363</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>366</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>369</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>372</v>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="412">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -992,9 +992,6 @@
     <t>The pilot of the B-29 bomber Enola Gay that dropped the atomic bomb on Hiroshima, killing approximately 90,000–166,000 people</t>
   </si>
   <si>
-    <t>The name of Rafa's sister first hit single</t>
-  </si>
-  <si>
     <t>Pictures/stormyD</t>
   </si>
   <si>
@@ -1061,15 +1058,6 @@
     <t>Do All Lives REALLY Matter</t>
   </si>
   <si>
-    <t>No Show Ho Got Da FOMO</t>
-  </si>
-  <si>
-    <t>Who's That *POKEMON*??</t>
-  </si>
-  <si>
-    <t>So, What Do You Do?</t>
-  </si>
-  <si>
     <t>THINK LIKE A MAN 2</t>
   </si>
   <si>
@@ -1163,7 +1151,7 @@
     <t>Speedy Gonzalez</t>
   </si>
   <si>
-    <t>Do Black Lives Matter to YOU??</t>
+    <t>Pictures/charmanderA</t>
   </si>
   <si>
     <t xml:space="preserve">THINK LIKE A MAN </t>
@@ -1172,9 +1160,6 @@
     <t>Ooo MEMBA THE 90s Ooo YEAH I MEMBA</t>
   </si>
   <si>
-    <t>no hints for this one, only girls can answer but too easy</t>
-  </si>
-  <si>
     <t>A friend that you can bring to a bar or party in order to find women more easily.</t>
   </si>
   <si>
@@ -1214,22 +1199,16 @@
     <t>Pictures/mewtwoA</t>
   </si>
   <si>
+    <t>Pictures/gengarA</t>
+  </si>
+  <si>
     <t>Pictures/blastoiseA</t>
   </si>
   <si>
-    <t>Historic Women</t>
-  </si>
-  <si>
-    <t>Quarantine victims</t>
-  </si>
-  <si>
-    <t>Oo Memba When There Weren't So Many Mexicans? Oo yeah I Memba</t>
-  </si>
-  <si>
     <t>Pictures/charmanderQSounds/whosThat.mp3</t>
   </si>
   <si>
-    <t>Pictures/charmanderASounds/DropTheGame.mp3</t>
+    <t>Pictures/gengarQSounds/whosThat.mp3</t>
   </si>
   <si>
     <t>Pictures/mewtwoQSounds/whosThat.mp3</t>
@@ -1241,10 +1220,59 @@
     <t>Pictures/blastoiseQSounds/whosThat.mp3</t>
   </si>
   <si>
-    <t>Pictures/magmarQSounds/whosThat.mp3</t>
-  </si>
-  <si>
-    <t>Pictures/magmarA</t>
+    <t>Pictures/mordorQ</t>
+  </si>
+  <si>
+    <t>Pictures/mordorA</t>
+  </si>
+  <si>
+    <t>Pictures/immaQ</t>
+  </si>
+  <si>
+    <t>Pictures/immaA</t>
+  </si>
+  <si>
+    <t>Pictures/moneyQ</t>
+  </si>
+  <si>
+    <t>Pictures/moneyA</t>
+  </si>
+  <si>
+    <t>Pictures/noQ</t>
+  </si>
+  <si>
+    <t>Pictures/noA</t>
+  </si>
+  <si>
+    <t>Pictures/changeQ</t>
+  </si>
+  <si>
+    <t>Pictures/changeA</t>
+  </si>
+  <si>
+    <t>WHO'S THAT POKEMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HISTORIC WOMEN ALL WOMEN SHOULD KNOW</t>
+  </si>
+  <si>
+    <t>SO, WHAT DO YOU DO?</t>
+  </si>
+  <si>
+    <t>Ooo MEMBA WHEN THERE WEREN'T SO MANY MEXICANS? Ooo YEAH I MEMBA</t>
+  </si>
+  <si>
+    <t>DO BLACK LIVES MATTER TO YOU?</t>
+  </si>
+  <si>
+    <t>NO SHOW HO GOT DA FOMO</t>
+  </si>
+  <si>
+    <t>The name of Rafa's sister first hit single.</t>
+  </si>
+  <si>
+    <t>WHAT DO YOU &amp; MEME</t>
   </si>
 </sst>
 </file>
@@ -4652,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4705,22 +4733,22 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -4734,14 +4762,12 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="21"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="24" t="s">
-        <v>378</v>
-      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="3"/>
       <c r="G4" s="11"/>
       <c r="H4" s="9"/>
@@ -4769,7 +4795,7 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
@@ -4800,7 +4826,7 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
@@ -4825,13 +4851,13 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>296</v>
@@ -4863,7 +4889,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>302</v>
@@ -4894,7 +4920,7 @@
         <v>306</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>308</v>
@@ -4925,7 +4951,7 @@
         <v>312</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>314</v>
@@ -4953,13 +4979,13 @@
         <v>317</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -4975,22 +5001,22 @@
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -5006,22 +5032,22 @@
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -5037,22 +5063,22 @@
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -5110,22 +5136,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -5160,20 +5186,22 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
@@ -5189,20 +5217,22 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>290</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
@@ -5218,20 +5248,22 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>347</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
@@ -5247,20 +5279,22 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>350</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -5276,20 +5310,22 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>307</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -5305,20 +5341,22 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>356</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
@@ -5334,20 +5372,22 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
@@ -5363,20 +5403,22 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
@@ -5392,20 +5434,22 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="D27" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
@@ -5421,20 +5465,22 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>368</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="415">
   <si>
     <t>DOUBLE JEOPARDY</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>THINK LIKE A MAN 2</t>
   </si>
   <si>
-    <t>Co-captained the USWNT to a 4th WC title in 2019. She also won  the Ballon d'Or Féminin and was named The Best FIFA Women's Player in 2019.</t>
-  </si>
-  <si>
     <t>This young man looks to follow in the footsteps of his father and make his own name as a Sports Journalists.</t>
   </si>
   <si>
@@ -1079,9 +1076,6 @@
     <t>Jose Fernando Solis Camara Martinez</t>
   </si>
   <si>
-    <t>The first female aviator to fly solo across the Atlantic Ocean</t>
-  </si>
-  <si>
     <t>Maria Gabriela Torres often complains about her work at Deloitte. What is her current Job title at this company?</t>
   </si>
   <si>
@@ -1097,9 +1091,6 @@
     <t>Carlos Slim</t>
   </si>
   <si>
-    <t>A Mexican painter known for her many portraits, self-portraits, and works inspired by the nature and artifacts of Mexico.</t>
-  </si>
-  <si>
     <t>Mariana Valenzuela has moved up the ranks as MDF Coordinator to Account Manager at this company</t>
   </si>
   <si>
@@ -1115,15 +1106,9 @@
     <t>Sergio "Checo" Perez</t>
   </si>
   <si>
-    <t>**An American social reformer and women's rights activist who played a pivotal role in the women's suffrage movement. In 1851, she met Elizabeth Cady Stanton, who became her lifelong friend and co-worker in social reform activities, primarily in the field of women's rights.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Before making his big move to New York City to become an Investment Banking Analyst at JP Morgan, Marcelo Guerra, worked as what type of analyst and for what bank? </t>
   </si>
   <si>
-    <t xml:space="preserve"> A video that was uploaded to YouTube before May 8, 2006 from Mexico features this young man falling into the water after attempting to cross a bridge composed of two logs.</t>
-  </si>
-  <si>
     <t>Susan B. Anthony</t>
   </si>
   <si>
@@ -1139,9 +1124,6 @@
     <t>Jose Reyes is an up-and-coming Senior Sales Engineer for this Company</t>
   </si>
   <si>
-    <t>An animated caricature of a mouse in the Warner Brothers Looney Tunes and Merrie Melodies series of cartoons. He is portrayed as "The Fastest Mouse in all Mexico" with his major traits being the ability to run extremely fast and speaking with an exaggerated Mexican accent.</t>
-  </si>
-  <si>
     <t>Ruby Bridges</t>
   </si>
   <si>
@@ -1160,9 +1142,6 @@
     <t>Ooo MEMBA THE 90s Ooo YEAH I MEMBA</t>
   </si>
   <si>
-    <t>A friend that you can bring to a bar or party in order to find women more easily.</t>
-  </si>
-  <si>
     <t>Wingman</t>
   </si>
   <si>
@@ -1175,9 +1154,6 @@
     <t>Bros Before Hoes</t>
   </si>
   <si>
-    <t>Known medically as epididymal hypertension (EH), is a condition that can affect people with male genitals. It's not serious, but causes pain and aching in the testicles after having an erection without an orgasm.</t>
-  </si>
-  <si>
     <t>Blue Balls</t>
   </si>
   <si>
@@ -1187,9 +1163,6 @@
     <t>Shotgunning</t>
   </si>
   <si>
-    <t>A type of game, often played using the Internet, where participants assemble imaginary or virtual teams of real players of a professional sport.</t>
-  </si>
-  <si>
     <t>Fantasy Sports</t>
   </si>
   <si>
@@ -1253,11 +1226,7 @@
     <t>WHO'S THAT POKEMON</t>
   </si>
   <si>
-    <t xml:space="preserve">
-HISTORIC WOMEN ALL WOMEN SHOULD KNOW</t>
-  </si>
-  <si>
-    <t>SO, WHAT DO YOU DO?</t>
+    <t>WHAT DO YOU MEME</t>
   </si>
   <si>
     <t>Ooo MEMBA WHEN THERE WEREN'T SO MANY MEXICANS? Ooo YEAH I MEMBA</t>
@@ -1269,10 +1238,49 @@
     <t>NO SHOW HO GOT DA FOMO</t>
   </si>
   <si>
-    <t>The name of Rafa's sister first hit single.</t>
-  </si>
-  <si>
-    <t>WHAT DO YOU &amp; MEME</t>
+    <t>HISTORIC WOMEN ALL WOMEN SHOULD KNOW BUT PROBABLY DON'T</t>
+  </si>
+  <si>
+    <t>SO...WHAT DO YOU DO?</t>
+  </si>
+  <si>
+    <t>She co-captained the USWNT to a 4th WC title in 2019, won the Ballon d'Or Féminin, and was named The Best FIFA Women's Player in 2019.</t>
+  </si>
+  <si>
+    <t>This female aviator was the first to fly solo across the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>This Mexican painter is known for her many portraits, self-portraits, and works inspired by the nature and artifacts of Mexico.</t>
+  </si>
+  <si>
+    <t>**This American social reformer and women's rights activist played a pivotal role in the women's suffrage movement. In 1851, she met Elizabeth Cady Stanton, who became her lifelong friend and co-worker in social reform activities, primarily in the field of women's rights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A video that was uploaded to YouTube on May 8, 2006 features this young man falling into the water after attempting to cross a bridge composed of two logs.</t>
+  </si>
+  <si>
+    <t>This animated Looney Tunes cartoon is portrayed as "The Fastest Mouse in all Mexico" with his major traits being the ability to run extremely fast and speaking with an exaggerated Mexican accent.</t>
+  </si>
+  <si>
+    <t>SPORTS</t>
+  </si>
+  <si>
+    <t>This Italian professional motorcycle road racer and multiple MotoGP World Champion is widely considered to be the greatest motorcycle racer of all time, with nine Grand Prix World Championships to his name – seven of which are in the premier class.</t>
+  </si>
+  <si>
+    <t>Valentino Rossi</t>
+  </si>
+  <si>
+    <t>Name for a friend you can bring to a bar or party in order to find women more easily.</t>
+  </si>
+  <si>
+    <t>Known medically as epididymal hypertension (EH), this condition can affect people with male genitals. Though not serious, it causes pain and aching in the testicles after having an erection without an orgasm.</t>
+  </si>
+  <si>
+    <t>In this type of game, often played over the Internet, participants assemble imaginary or virtual teams of real players from a professional sport.</t>
+  </si>
+  <si>
+    <t>The name of Rafa's sister first hit single.Sounds/joseC.mp3</t>
   </si>
 </sst>
 </file>
@@ -4680,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4736,19 +4744,19 @@
         <v>338</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -4795,7 +4803,7 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
@@ -4826,7 +4834,7 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
@@ -4851,13 +4859,13 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>296</v>
@@ -4889,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>302</v>
@@ -4920,7 +4928,7 @@
         <v>306</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>308</v>
@@ -4951,7 +4959,7 @@
         <v>312</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>314</v>
@@ -4979,10 +4987,10 @@
         <v>317</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>319</v>
@@ -5013,7 +5021,7 @@
         <v>323</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>325</v>
@@ -5044,7 +5052,7 @@
         <v>329</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>331</v>
@@ -5075,7 +5083,7 @@
         <v>335</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>337</v>
@@ -5136,22 +5144,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -5186,22 +5194,22 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
@@ -5217,22 +5225,22 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>290</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
@@ -5248,22 +5256,22 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
@@ -5279,22 +5287,22 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -5310,22 +5318,22 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>307</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
@@ -5341,22 +5349,22 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
@@ -5372,22 +5380,22 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>318</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
@@ -5403,22 +5411,22 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>324</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
@@ -5434,22 +5442,22 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>330</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
@@ -5465,22 +5473,22 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>336</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -5538,7 +5546,7 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>147</v>
+        <v>408</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
@@ -5573,7 +5581,7 @@
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -5594,7 +5602,7 @@
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -956,9 +956,6 @@
     <t>**What is the name of the officer that killed George Floyd?</t>
   </si>
   <si>
-    <t>Rafa has two younger brothers. What are there names?</t>
-  </si>
-  <si>
     <t>Pictures/miaK</t>
   </si>
   <si>
@@ -1007,9 +1004,6 @@
     <t>Paul Tibbets</t>
   </si>
   <si>
-    <t>Quien Te Entiende</t>
-  </si>
-  <si>
     <t>Stormy Daniels</t>
   </si>
   <si>
@@ -1280,7 +1274,13 @@
     <t>In this type of game, often played over the Internet, participants assemble imaginary or virtual teams of real players from a professional sport.</t>
   </si>
   <si>
-    <t>The name of Rafa's sister first hit single.Sounds/joseC.mp3</t>
+    <t>Rafa has two younger brothers. What are their names?</t>
+  </si>
+  <si>
+    <t>The name of Rafa's sister first hit single.Sounds/joseCQ.mp3</t>
+  </si>
+  <si>
+    <t>Quien Te EntiendeSounds/joseCA.mp3</t>
   </si>
 </sst>
 </file>
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4718,7 +4718,7 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -4741,34 +4741,34 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -4777,7 +4777,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="24"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4787,7 +4787,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4803,12 +4803,12 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -4818,7 +4818,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -4834,12 +4834,12 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -4849,7 +4849,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4859,18 +4859,18 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4880,7 +4880,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="17"/>
       <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4897,12 +4897,12 @@
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -4912,7 +4912,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -4925,15 +4925,15 @@
         <v>305</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -4943,28 +4943,28 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>313</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -4974,28 +4974,28 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>318</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5005,28 +5005,28 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="D12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5036,28 +5036,28 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5067,26 +5067,26 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -5098,7 +5098,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -5119,7 +5119,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -5140,26 +5140,26 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -5171,7 +5171,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -5180,7 +5180,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="22"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5190,28 +5190,28 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>340</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5221,28 +5221,28 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>290</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5252,28 +5252,28 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="11"/>
+        <v>345</v>
+      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5283,28 +5283,28 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="11"/>
+        <v>348</v>
+      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5314,28 +5314,28 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G23" s="11"/>
+        <v>350</v>
+      </c>
+      <c r="G23" s="17"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5345,28 +5345,28 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -5376,28 +5376,28 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>404</v>
+      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -5407,28 +5407,28 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -5438,28 +5438,28 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -5469,26 +5469,26 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -5500,7 +5500,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -5521,7 +5521,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -5532,7 +5532,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -5542,11 +5542,11 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
@@ -5558,7 +5558,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -5577,11 +5577,11 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -5598,11 +5598,11 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -5619,7 +5619,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
@@ -5638,7 +5638,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
@@ -5657,7 +5657,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
@@ -5676,7 +5676,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
@@ -5695,7 +5695,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
@@ -5714,7 +5714,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
@@ -5733,7 +5733,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
       <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
+      <c r="Q40" s="17"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P42" s="7"/>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -1058,24 +1058,15 @@
     <t>This young man looks to follow in the footsteps of his father and make his own name as a Sports Journalists.</t>
   </si>
   <si>
-    <t>Jose Solis full name</t>
-  </si>
-  <si>
     <t>Megan Rapinoe</t>
   </si>
   <si>
     <t>Nico Cantor</t>
   </si>
   <si>
-    <t>Jose Fernando Solis Camara Martinez</t>
-  </si>
-  <si>
     <t>Maria Gabriela Torres often complains about her work at Deloitte. What is her current Job title at this company?</t>
   </si>
   <si>
-    <t>From 2010 to 2013, he was ranked as the richest person in the world by the Forbes business magazine.</t>
-  </si>
-  <si>
     <t>Amelia Earhart</t>
   </si>
   <si>
@@ -1281,6 +1272,15 @@
   </si>
   <si>
     <t>Quien Te EntiendeSounds/joseCA.mp3</t>
+  </si>
+  <si>
+    <t>Jose Solis' full name</t>
+  </si>
+  <si>
+    <t>Jose Fernando Solis-Camara Martinez</t>
+  </si>
+  <si>
+    <t>**From 2010 to 2013, he was ranked as the richest person in the world by the Forbes business magazine.</t>
   </si>
 </sst>
 </file>
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4744,19 +4744,19 @@
         <v>336</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -4803,7 +4803,7 @@
         <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>285</v>
@@ -4834,7 +4834,7 @@
         <v>289</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>291</v>
@@ -4859,13 +4859,13 @@
         <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>296</v>
@@ -4897,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>302</v>
@@ -4925,10 +4925,10 @@
         <v>305</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>307</v>
@@ -4959,7 +4959,7 @@
         <v>311</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>313</v>
@@ -4987,10 +4987,10 @@
         <v>316</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>318</v>
@@ -5018,10 +5018,10 @@
         <v>321</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>323</v>
@@ -5052,7 +5052,7 @@
         <v>327</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>329</v>
@@ -5083,7 +5083,7 @@
         <v>333</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>335</v>
@@ -5144,22 +5144,22 @@
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>339</v>
@@ -5209,7 +5209,7 @@
         <v>284</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="9"/>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>290</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="9"/>
@@ -5256,22 +5256,22 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="9"/>
@@ -5287,22 +5287,22 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="9"/>
@@ -5318,22 +5318,22 @@
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>306</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="9"/>
@@ -5349,22 +5349,22 @@
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>312</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="9"/>
@@ -5380,22 +5380,22 @@
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>317</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="9"/>
@@ -5411,22 +5411,22 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>322</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="9"/>
@@ -5442,22 +5442,22 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>328</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="9"/>
@@ -5473,22 +5473,22 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>334</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
